--- a/doc/materialy.xlsx
+++ b/doc/materialy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D09CF1C-53C3-486E-9055-2FFE1C451F0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C1286-77AE-4D36-90B7-34A60B2ADBCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Link</t>
   </si>
@@ -152,10 +152,67 @@
     <t>Robot manipulator control using neural networks: A survey</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/29652591</t>
-  </si>
-  <si>
-    <t>A Reinforcement Learning Neural Network for Robotic Manipulator Control.</t>
+    <t>latex</t>
+  </si>
+  <si>
+    <t>ex1</t>
+  </si>
+  <si>
+    <t>ex2</t>
+  </si>
+  <si>
+    <t>ex3</t>
+  </si>
+  <si>
+    <t>ex4</t>
+  </si>
+  <si>
+    <t>ex5</t>
+  </si>
+  <si>
+    <t>ex6</t>
+  </si>
+  <si>
+    <t>ex7</t>
+  </si>
+  <si>
+    <t>ex8</t>
+  </si>
+  <si>
+    <t>ex9</t>
+  </si>
+  <si>
+    <t>ex10</t>
+  </si>
+  <si>
+    <t>ex11</t>
+  </si>
+  <si>
+    <t>ex12</t>
+  </si>
+  <si>
+    <t>ex13</t>
+  </si>
+  <si>
+    <t>ex14</t>
+  </si>
+  <si>
+    <t>ex15</t>
+  </si>
+  <si>
+    <t>ex16</t>
+  </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -207,9 +264,10 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
       <charset val="238"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +306,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -259,12 +316,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -332,12 +431,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5719C0F-5A8D-4139-BEC0-FBAEA374AD78}" name="Tabela1" displayName="Tabela1" ref="A1:C7" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C7" xr:uid="{E0BFB9B2-DAA3-4CF6-91D7-9119858D3E60}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7431680F-AA56-40E2-9DE4-E20C2EA63BA0}" name="Title" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{46A4636C-489C-4229-83BB-B3870CF05E04}" name="Link" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1F03B703-5669-404A-845F-30D28907C23A}" name="Comment" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5719C0F-5A8D-4139-BEC0-FBAEA374AD78}" name="Tabela1" displayName="Tabela1" ref="A1:F18" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F18" xr:uid="{E0BFB9B2-DAA3-4CF6-91D7-9119858D3E60}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7431680F-AA56-40E2-9DE4-E20C2EA63BA0}" name="Title" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{46A4636C-489C-4229-83BB-B3870CF05E04}" name="Link" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{1F03B703-5669-404A-845F-30D28907C23A}" name="Comment" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FDD124B6-4F52-411C-86F7-532E860E478C}" name="latex" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B02378B0-4EC7-40BF-BD08-16C35D97EA76}" name="bibtex" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{82310EF6-C671-40A1-B054-533D984F9871}" name="Kolumna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +721,7 @@
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -629,8 +731,17 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -638,167 +749,281 @@
         <v>1</v>
       </c>
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -816,13 +1041,12 @@
     <hyperlink ref="B14" r:id="rId12" xr:uid="{7ACE6821-B5B2-43E7-AEB6-EEC9D7447C9C}"/>
     <hyperlink ref="B15" r:id="rId13" xr:uid="{34A1ADED-16B2-4270-8B7E-016F9DED08DC}"/>
     <hyperlink ref="B16" r:id="rId14" xr:uid="{43A493CC-2540-42E8-AFFF-8334FF7C4B24}"/>
-    <hyperlink ref="B17" r:id="rId15" location="keys0001" display="https://www.sciencedirect.com/science/article/pii/S0925231218300158?via%3Dihub - keys0001" xr:uid="{3828D28A-A733-4B2B-9A76-D9DCD47E8809}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{2861C152-653B-4BEB-A0AC-644D8243CC53}"/>
+    <hyperlink ref="B17" r:id="rId15" location="keys0001" xr:uid="{3828D28A-A733-4B2B-9A76-D9DCD47E8809}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
